--- a/biology/Botanique/Vierh/Vierh..xlsx
+++ b/biology/Botanique/Vierh/Vierh..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Karl Max Vierhapper, né le 7 mars 1876 à Weidenau en Silésie et mort le 11 juillet 1932 à Vienne, est un botaniste autrichien qui fut professeur d'université à l'université de Vienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vierhapper est le fils d'un instituteur et botaniste amateur, Friedrich Vierhapper (1844-1903). Il passe son enfance et ses années de scolarité à Ried im Innkreis, puis il étudie l'histoire naturelle et la botanique à l'université de Vienne de 1894 à 1899, où il reçoit son diplôme grâce à sa thèse intitulée Zur Systematik und geographischen Verbreitung einer alpinen Dianthus-Gruppe. Il est l'élève d'Anton Kerner von Marilaun et de Karl Fritsch, et l'assistant du professeur Richard Wettstein von Westersheim. Friedrich Vierhapper reçoit son habilitation à l'université de Vienne en 1906, après avoir soutenu sa thèse de doctorat d'État intitulée Monographie der alpinen Erigeron-Arten Europas und Vorderasiens. Il est nommé en 1915 professeur extraordinaire de cette même université et donne des cours de systématique botanique.
 Friedrich Vierhapper se spécialisa notamment dans la flore alpine et subalpine des Alpes orientales d'Autriche (spécialement celle du Lungau) et de Suisse et aussi dans la flore des montagnes des Carpathes, de Bosnie, de Crète et de Grèce. Il fit plusieurs expéditions botaniques avec August von Hayek (1871-1928). Il classa et décrivit les spécimens rapportés d'Arabie et de Socotra par l'expédition de l'Académie impériale des sciences de Vienne de 1898-1899.
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fritz Vierhapper jun., Zur Systematik und geographischen Verbreitung einer alpinen Dianthus-Gruppe, Sitzungsberichte der Akademie der Wissenschaften in Wien, mathematisch-naturwissenschaftliche Klasse, 108: 1057-1170, Wien 1898.
 Fritz Vierhapper, „Arnica doronicum Jacquin“ und ihre nächsten Verwandten, in: Österreichische Botanische Zeitschrift 50: pp. 109–115, 173-178, 202-208, 257-264, 501, Wien 1900.
